--- a/Paper/Areum/Simulation_Performance_Student.xlsx
+++ b/Paper/Areum/Simulation_Performance_Student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Journal\01. Preparing\11. ISDIC Sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\JeonHa\Research_assistant\Paper\Areum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B316AC-115D-4E70-A5B1-7AB04151828A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EA5B21-5161-404B-AA72-32F4157A95A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{FADC375C-4FCB-42A0-A2FF-16ECF134D02F}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FADC375C-4FCB-42A0-A2FF-16ECF134D02F}"/>
   </bookViews>
   <sheets>
     <sheet name="Group-ISDIC" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="42">
   <si>
     <t>8x8 QPSK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,160 +646,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5DCDCA-E16B-4BB8-B100-EA0CCA04163B}">
-  <dimension ref="B3:AF63"/>
+  <dimension ref="A3:AD63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:27">
-      <c r="C3" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="s">
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="T3" t="s">
+      <c r="R3" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="W3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:27">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="P4" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="Q4" s="9"/>
-      <c r="R4" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="U4" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="V4" s="9"/>
-      <c r="W4" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-    </row>
-    <row r="5" spans="2:27">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27">
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>-10</v>
       </c>
+      <c r="B6" s="3">
+        <v>0.19467999999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.2495</v>
+      </c>
       <c r="D6" s="3">
-        <v>0.19467999999999999</v>
+        <v>0.39267999999999997</v>
       </c>
       <c r="E6" s="3">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="F6" s="3">
         <v>0.2495</v>
       </c>
-      <c r="F6" s="3">
-        <v>0.39267999999999997</v>
-      </c>
       <c r="G6" s="3">
-        <v>0.26319999999999999</v>
+        <v>0.2495</v>
       </c>
       <c r="H6" s="3">
         <v>0.2495</v>
@@ -811,13 +815,13 @@
         <v>0.2495</v>
       </c>
       <c r="K6" s="3">
-        <v>0.2495</v>
+        <v>0.24925</v>
       </c>
       <c r="L6" s="3">
-        <v>0.2495</v>
+        <v>0.249</v>
       </c>
       <c r="M6" s="3">
-        <v>0.24925</v>
+        <v>0.249</v>
       </c>
       <c r="N6" s="3">
         <v>0.249</v>
@@ -826,57 +830,57 @@
         <v>0.249</v>
       </c>
       <c r="P6" s="3">
-        <v>0.249</v>
+        <v>0.24489</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.249</v>
+        <v>0.24587000000000001</v>
       </c>
       <c r="R6" s="3">
-        <v>0.24489</v>
+        <v>0.24440999999999999</v>
       </c>
       <c r="S6" s="3">
-        <v>0.24587000000000001</v>
+        <v>0.24392</v>
       </c>
       <c r="T6" s="3">
-        <v>0.24440999999999999</v>
+        <v>0.24392</v>
       </c>
       <c r="U6" s="3">
-        <v>0.24392</v>
+        <v>0.24396999999999999</v>
       </c>
       <c r="V6" s="3">
-        <v>0.24392</v>
+        <v>0.24228</v>
       </c>
       <c r="W6" s="3">
-        <v>0.24396999999999999</v>
+        <v>0.24131</v>
       </c>
       <c r="X6" s="3">
-        <v>0.24228</v>
+        <v>0.24204000000000001</v>
       </c>
       <c r="Y6" s="3">
-        <v>0.24131</v>
-      </c>
-      <c r="Z6" s="3">
         <v>0.24204000000000001</v>
       </c>
-      <c r="AA6" s="3">
-        <v>0.24204000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27">
-      <c r="C7" s="2">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>-8</v>
       </c>
+      <c r="B7" s="3">
+        <v>0.13453999999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.20313000000000001</v>
+      </c>
       <c r="D7" s="3">
-        <v>0.13453999999999999</v>
+        <v>0.36038999999999999</v>
       </c>
       <c r="E7" s="3">
+        <v>0.23762</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.20313000000000001</v>
       </c>
-      <c r="F7" s="3">
-        <v>0.36038999999999999</v>
-      </c>
       <c r="G7" s="3">
-        <v>0.23762</v>
+        <v>0.20313000000000001</v>
       </c>
       <c r="H7" s="3">
         <v>0.20313000000000001</v>
@@ -888,72 +892,72 @@
         <v>0.20313000000000001</v>
       </c>
       <c r="K7" s="3">
-        <v>0.20313000000000001</v>
+        <v>0.20247000000000001</v>
       </c>
       <c r="L7" s="3">
-        <v>0.20313000000000001</v>
+        <v>0.20449000000000001</v>
       </c>
       <c r="M7" s="3">
-        <v>0.20247000000000001</v>
+        <v>0.20469000000000001</v>
       </c>
       <c r="N7" s="3">
-        <v>0.20449000000000001</v>
+        <v>0.2051</v>
       </c>
       <c r="O7" s="3">
+        <v>0.20488999999999999</v>
+      </c>
+      <c r="P7" s="3">
         <v>0.20469000000000001</v>
       </c>
-      <c r="P7" s="3">
-        <v>0.2051</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.20488999999999999</v>
+        <v>0.20266999999999999</v>
       </c>
       <c r="R7" s="3">
-        <v>0.20469000000000001</v>
+        <v>0.20307</v>
       </c>
       <c r="S7" s="3">
-        <v>0.20266999999999999</v>
+        <v>0.20307</v>
       </c>
       <c r="T7" s="3">
-        <v>0.20307</v>
+        <v>0.20327999999999999</v>
       </c>
       <c r="U7" s="3">
-        <v>0.20307</v>
+        <v>0.20347000000000001</v>
       </c>
       <c r="V7" s="3">
-        <v>0.20327999999999999</v>
+        <v>0.19794999999999999</v>
       </c>
       <c r="W7" s="3">
-        <v>0.20347000000000001</v>
+        <v>0.19756000000000001</v>
       </c>
       <c r="X7" s="3">
+        <v>0.19756000000000001</v>
+      </c>
+      <c r="Y7" s="3">
         <v>0.19794999999999999</v>
       </c>
-      <c r="Y7" s="3">
-        <v>0.19756000000000001</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0.19756000000000001</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0.19794999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27">
-      <c r="C8" s="2">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>-6</v>
       </c>
+      <c r="B8" s="3">
+        <v>8.8116E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.16378000000000001</v>
+      </c>
       <c r="D8" s="3">
-        <v>8.8116E-2</v>
+        <v>0.32804</v>
       </c>
       <c r="E8" s="3">
+        <v>0.21548</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.16378000000000001</v>
       </c>
-      <c r="F8" s="3">
-        <v>0.32804</v>
-      </c>
       <c r="G8" s="3">
-        <v>0.21548</v>
+        <v>0.16378000000000001</v>
       </c>
       <c r="H8" s="3">
         <v>0.16378000000000001</v>
@@ -965,72 +969,72 @@
         <v>0.16378000000000001</v>
       </c>
       <c r="K8" s="3">
-        <v>0.16378000000000001</v>
+        <v>0.16103000000000001</v>
       </c>
       <c r="L8" s="3">
-        <v>0.16378000000000001</v>
+        <v>0.15820999999999999</v>
       </c>
       <c r="M8" s="3">
-        <v>0.16103000000000001</v>
+        <v>0.15820999999999999</v>
       </c>
       <c r="N8" s="3">
+        <v>0.15742</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.15711</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.15695000000000001</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.15758</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.15742</v>
+      </c>
+      <c r="S8" s="3">
         <v>0.15820999999999999</v>
       </c>
-      <c r="O8" s="3">
-        <v>0.15820999999999999</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0.15742</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0.15711</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0.15695000000000001</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0.15758</v>
-      </c>
       <c r="T8" s="3">
-        <v>0.15742</v>
+        <v>0.15883</v>
       </c>
       <c r="U8" s="3">
-        <v>0.15820999999999999</v>
+        <v>0.15414</v>
       </c>
       <c r="V8" s="3">
-        <v>0.15883</v>
+        <v>0.15112</v>
       </c>
       <c r="W8" s="3">
-        <v>0.15414</v>
+        <v>0.15232000000000001</v>
       </c>
       <c r="X8" s="3">
-        <v>0.15112</v>
+        <v>0.15443999999999999</v>
       </c>
       <c r="Y8" s="3">
-        <v>0.15232000000000001</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0.15443999999999999</v>
-      </c>
-      <c r="AA8" s="3">
         <v>0.15504000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:27">
-      <c r="C9" s="2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>-4</v>
       </c>
+      <c r="B9" s="3">
+        <v>4.7928999999999999E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.12690000000000001</v>
+      </c>
       <c r="D9" s="3">
-        <v>4.7928999999999999E-2</v>
+        <v>0.29792000000000002</v>
       </c>
       <c r="E9" s="3">
+        <v>0.19206000000000001</v>
+      </c>
+      <c r="F9" s="3">
         <v>0.12690000000000001</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.29792000000000002</v>
-      </c>
       <c r="G9" s="3">
-        <v>0.19206000000000001</v>
+        <v>0.12690000000000001</v>
       </c>
       <c r="H9" s="3">
         <v>0.12690000000000001</v>
@@ -1042,72 +1046,72 @@
         <v>0.12690000000000001</v>
       </c>
       <c r="K9" s="3">
-        <v>0.12690000000000001</v>
+        <v>0.11729000000000001</v>
       </c>
       <c r="L9" s="3">
-        <v>0.12690000000000001</v>
+        <v>0.11354</v>
       </c>
       <c r="M9" s="3">
-        <v>0.11729000000000001</v>
+        <v>0.11445</v>
       </c>
       <c r="N9" s="3">
-        <v>0.11354</v>
+        <v>0.11422</v>
       </c>
       <c r="O9" s="3">
         <v>0.11445</v>
       </c>
       <c r="P9" s="3">
-        <v>0.11422</v>
+        <v>0.11441999999999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.11445</v>
+        <v>0.1094</v>
       </c>
       <c r="R9" s="3">
-        <v>0.11441999999999999</v>
+        <v>0.10962</v>
       </c>
       <c r="S9" s="3">
-        <v>0.1094</v>
+        <v>0.10908</v>
       </c>
       <c r="T9" s="3">
-        <v>0.10962</v>
+        <v>0.10918</v>
       </c>
       <c r="U9" s="3">
-        <v>0.10908</v>
+        <v>0.11090999999999999</v>
       </c>
       <c r="V9" s="3">
-        <v>0.10918</v>
+        <v>0.10742</v>
       </c>
       <c r="W9" s="3">
-        <v>0.11090999999999999</v>
+        <v>0.10625</v>
       </c>
       <c r="X9" s="3">
-        <v>0.10742</v>
+        <v>0.10593</v>
       </c>
       <c r="Y9" s="3">
-        <v>0.10625</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0.10593</v>
-      </c>
-      <c r="AA9" s="3">
         <v>0.1072</v>
       </c>
     </row>
-    <row r="10" spans="2:27">
-      <c r="C10" s="2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>-2</v>
       </c>
+      <c r="B10" s="3">
+        <v>1.9588000000000001E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9.5859E-2</v>
+      </c>
       <c r="D10" s="3">
-        <v>1.9588000000000001E-2</v>
+        <v>0.25881999999999999</v>
       </c>
       <c r="E10" s="3">
+        <v>0.18049999999999999</v>
+      </c>
+      <c r="F10" s="3">
         <v>9.5859E-2</v>
       </c>
-      <c r="F10" s="3">
-        <v>0.25881999999999999</v>
-      </c>
       <c r="G10" s="3">
-        <v>0.18049999999999999</v>
+        <v>9.5859E-2</v>
       </c>
       <c r="H10" s="3">
         <v>9.5859E-2</v>
@@ -1119,72 +1123,72 @@
         <v>9.5859E-2</v>
       </c>
       <c r="K10" s="3">
-        <v>9.5859E-2</v>
+        <v>7.9616999999999993E-2</v>
       </c>
       <c r="L10" s="3">
-        <v>9.5859E-2</v>
+        <v>7.3288000000000006E-2</v>
       </c>
       <c r="M10" s="3">
-        <v>7.9616999999999993E-2</v>
+        <v>7.2280999999999998E-2</v>
       </c>
       <c r="N10" s="3">
-        <v>7.3288000000000006E-2</v>
+        <v>7.1922E-2</v>
       </c>
       <c r="O10" s="3">
-        <v>7.2280999999999998E-2</v>
+        <v>7.2353000000000001E-2</v>
       </c>
       <c r="P10" s="3">
-        <v>7.1922E-2</v>
+        <v>7.1456000000000006E-2</v>
       </c>
       <c r="Q10" s="3">
-        <v>7.2353000000000001E-2</v>
+        <v>6.3634999999999997E-2</v>
       </c>
       <c r="R10" s="3">
-        <v>7.1456000000000006E-2</v>
+        <v>6.3067999999999999E-2</v>
       </c>
       <c r="S10" s="3">
-        <v>6.3634999999999997E-2</v>
+        <v>6.3382999999999995E-2</v>
       </c>
       <c r="T10" s="3">
-        <v>6.3067999999999999E-2</v>
+        <v>6.3194E-2</v>
       </c>
       <c r="U10" s="3">
-        <v>6.3382999999999995E-2</v>
+        <v>6.8666000000000005E-2</v>
       </c>
       <c r="V10" s="3">
-        <v>6.3194E-2</v>
+        <v>5.9753000000000001E-2</v>
       </c>
       <c r="W10" s="3">
-        <v>6.8666000000000005E-2</v>
+        <v>5.6669999999999998E-2</v>
       </c>
       <c r="X10" s="3">
-        <v>5.9753000000000001E-2</v>
+        <v>5.6501999999999997E-2</v>
       </c>
       <c r="Y10" s="3">
-        <v>5.6669999999999998E-2</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>5.6501999999999997E-2</v>
-      </c>
-      <c r="AA10" s="3">
         <v>5.6054E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:27">
-      <c r="C11" s="2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>0</v>
       </c>
+      <c r="B11" s="3">
+        <v>6.0359000000000003E-3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.5509999999999999E-2</v>
+      </c>
       <c r="D11" s="3">
-        <v>6.0359000000000003E-3</v>
+        <v>0.20988000000000001</v>
       </c>
       <c r="E11" s="3">
+        <v>0.16885</v>
+      </c>
+      <c r="F11" s="3">
         <v>6.5509999999999999E-2</v>
       </c>
-      <c r="F11" s="3">
-        <v>0.20988000000000001</v>
-      </c>
       <c r="G11" s="3">
-        <v>0.16885</v>
+        <v>6.5509999999999999E-2</v>
       </c>
       <c r="H11" s="3">
         <v>6.5509999999999999E-2</v>
@@ -1196,72 +1200,72 @@
         <v>6.5509999999999999E-2</v>
       </c>
       <c r="K11" s="3">
-        <v>6.5509999999999999E-2</v>
+        <v>4.5775999999999997E-2</v>
       </c>
       <c r="L11" s="3">
-        <v>6.5509999999999999E-2</v>
+        <v>3.7921000000000003E-2</v>
       </c>
       <c r="M11" s="3">
-        <v>4.5775999999999997E-2</v>
+        <v>3.7845999999999998E-2</v>
       </c>
       <c r="N11" s="3">
-        <v>3.7921000000000003E-2</v>
+        <v>3.7620000000000001E-2</v>
       </c>
       <c r="O11" s="3">
         <v>3.7845999999999998E-2</v>
       </c>
       <c r="P11" s="3">
-        <v>3.7620000000000001E-2</v>
+        <v>3.7082999999999998E-2</v>
       </c>
       <c r="Q11" s="3">
-        <v>3.7845999999999998E-2</v>
+        <v>2.7744999999999999E-2</v>
       </c>
       <c r="R11" s="3">
-        <v>3.7082999999999998E-2</v>
+        <v>2.6915999999999999E-2</v>
       </c>
       <c r="S11" s="3">
-        <v>2.7744999999999999E-2</v>
+        <v>2.6755000000000001E-2</v>
       </c>
       <c r="T11" s="3">
-        <v>2.6915999999999999E-2</v>
+        <v>2.6808999999999999E-2</v>
       </c>
       <c r="U11" s="3">
-        <v>2.6755000000000001E-2</v>
+        <v>3.3084000000000002E-2</v>
       </c>
       <c r="V11" s="3">
-        <v>2.6808999999999999E-2</v>
+        <v>2.4374E-2</v>
       </c>
       <c r="W11" s="3">
-        <v>3.3084000000000002E-2</v>
+        <v>2.2799E-2</v>
       </c>
       <c r="X11" s="3">
-        <v>2.4374E-2</v>
+        <v>2.2506000000000002E-2</v>
       </c>
       <c r="Y11" s="3">
-        <v>2.2799E-2</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>2.2506000000000002E-2</v>
-      </c>
-      <c r="AA11" s="3">
         <v>2.2596000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:27">
-      <c r="C12" s="2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
+      <c r="B12" s="3">
+        <v>1.305E-3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.4770999999999998E-2</v>
+      </c>
       <c r="D12" s="3">
-        <v>1.305E-3</v>
+        <v>0.16883000000000001</v>
       </c>
       <c r="E12" s="3">
+        <v>0.16628000000000001</v>
+      </c>
+      <c r="F12" s="3">
         <v>4.4770999999999998E-2</v>
       </c>
-      <c r="F12" s="3">
-        <v>0.16883000000000001</v>
-      </c>
       <c r="G12" s="3">
-        <v>0.16628000000000001</v>
+        <v>4.4770999999999998E-2</v>
       </c>
       <c r="H12" s="3">
         <v>4.4770999999999998E-2</v>
@@ -1273,72 +1277,72 @@
         <v>4.4770999999999998E-2</v>
       </c>
       <c r="K12" s="3">
-        <v>4.4770999999999998E-2</v>
+        <v>2.2539E-2</v>
       </c>
       <c r="L12" s="3">
-        <v>4.4770999999999998E-2</v>
+        <v>1.5606E-2</v>
       </c>
       <c r="M12" s="3">
-        <v>2.2539E-2</v>
+        <v>1.4952E-2</v>
       </c>
       <c r="N12" s="3">
-        <v>1.5606E-2</v>
+        <v>1.4937000000000001E-2</v>
       </c>
       <c r="O12" s="3">
         <v>1.4952E-2</v>
       </c>
       <c r="P12" s="3">
-        <v>1.4937000000000001E-2</v>
+        <v>1.4579E-2</v>
       </c>
       <c r="Q12" s="3">
-        <v>1.4952E-2</v>
+        <v>8.8260999999999999E-3</v>
       </c>
       <c r="R12" s="3">
-        <v>1.4579E-2</v>
+        <v>8.5359000000000008E-3</v>
       </c>
       <c r="S12" s="3">
-        <v>8.8260999999999999E-3</v>
+        <v>8.6213000000000001E-3</v>
       </c>
       <c r="T12" s="3">
-        <v>8.5359000000000008E-3</v>
+        <v>8.6126999999999992E-3</v>
       </c>
       <c r="U12" s="3">
-        <v>8.6213000000000001E-3</v>
+        <v>1.1568E-2</v>
       </c>
       <c r="V12" s="3">
-        <v>8.6126999999999992E-3</v>
+        <v>6.9357000000000004E-3</v>
       </c>
       <c r="W12" s="3">
-        <v>1.1568E-2</v>
+        <v>6.6413000000000002E-3</v>
       </c>
       <c r="X12" s="3">
-        <v>6.9357000000000004E-3</v>
+        <v>6.5889E-3</v>
       </c>
       <c r="Y12" s="3">
-        <v>6.6413000000000002E-3</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>6.5889E-3</v>
-      </c>
-      <c r="AA12" s="3">
         <v>6.5430999999999996E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:27">
-      <c r="C13" s="2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>4</v>
       </c>
+      <c r="B13" s="3">
+        <v>1.8955999999999999E-4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.7827000000000001E-2</v>
+      </c>
       <c r="D13" s="3">
-        <v>1.8955999999999999E-4</v>
+        <v>0.13012000000000001</v>
       </c>
       <c r="E13" s="3">
+        <v>0.15856000000000001</v>
+      </c>
+      <c r="F13" s="3">
         <v>2.7827000000000001E-2</v>
       </c>
-      <c r="F13" s="3">
-        <v>0.13012000000000001</v>
-      </c>
       <c r="G13" s="3">
-        <v>0.15856000000000001</v>
+        <v>2.7827000000000001E-2</v>
       </c>
       <c r="H13" s="3">
         <v>2.7827000000000001E-2</v>
@@ -1350,72 +1354,72 @@
         <v>2.7827000000000001E-2</v>
       </c>
       <c r="K13" s="3">
-        <v>2.7827000000000001E-2</v>
+        <v>8.8056999999999996E-3</v>
       </c>
       <c r="L13" s="3">
-        <v>2.7827000000000001E-2</v>
+        <v>5.0073000000000001E-3</v>
       </c>
       <c r="M13" s="3">
-        <v>8.8056999999999996E-3</v>
+        <v>4.7514999999999996E-3</v>
       </c>
       <c r="N13" s="3">
-        <v>5.0073000000000001E-3</v>
+        <v>4.6911000000000001E-3</v>
       </c>
       <c r="O13" s="3">
-        <v>4.7514999999999996E-3</v>
+        <v>4.6538999999999999E-3</v>
       </c>
       <c r="P13" s="3">
-        <v>4.6911000000000001E-3</v>
+        <v>4.4979E-3</v>
       </c>
       <c r="Q13" s="3">
-        <v>4.6538999999999999E-3</v>
+        <v>2.1243E-3</v>
       </c>
       <c r="R13" s="3">
-        <v>4.4979E-3</v>
+        <v>2.0371E-3</v>
       </c>
       <c r="S13" s="3">
-        <v>2.1243E-3</v>
+        <v>2.0390999999999999E-3</v>
       </c>
       <c r="T13" s="3">
-        <v>2.0371E-3</v>
+        <v>2.029E-3</v>
       </c>
       <c r="U13" s="3">
-        <v>2.0390999999999999E-3</v>
+        <v>3.1259E-3</v>
       </c>
       <c r="V13" s="3">
-        <v>2.029E-3</v>
+        <v>1.5790999999999999E-3</v>
       </c>
       <c r="W13" s="3">
-        <v>3.1259E-3</v>
+        <v>1.4940000000000001E-3</v>
       </c>
       <c r="X13" s="3">
-        <v>1.5790999999999999E-3</v>
+        <v>1.469E-3</v>
       </c>
       <c r="Y13" s="3">
-        <v>1.4940000000000001E-3</v>
-      </c>
-      <c r="Z13" s="3">
         <v>1.469E-3</v>
       </c>
-      <c r="AA13" s="3">
-        <v>1.469E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27">
-      <c r="C14" s="2">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
+      <c r="B14" s="3">
+        <v>1.8131999999999999E-5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.7867000000000001E-2</v>
+      </c>
       <c r="D14" s="3">
-        <v>1.8131999999999999E-5</v>
+        <v>9.4785999999999995E-2</v>
       </c>
       <c r="E14" s="3">
+        <v>0.15620999999999999</v>
+      </c>
+      <c r="F14" s="3">
         <v>1.7867000000000001E-2</v>
       </c>
-      <c r="F14" s="3">
-        <v>9.4785999999999995E-2</v>
-      </c>
       <c r="G14" s="3">
-        <v>0.15620999999999999</v>
+        <v>1.7867000000000001E-2</v>
       </c>
       <c r="H14" s="3">
         <v>1.7867000000000001E-2</v>
@@ -1427,70 +1431,70 @@
         <v>1.7867000000000001E-2</v>
       </c>
       <c r="K14" s="3">
-        <v>1.7867000000000001E-2</v>
+        <v>3.1175999999999999E-3</v>
       </c>
       <c r="L14" s="3">
-        <v>1.7867000000000001E-2</v>
+        <v>1.4607999999999999E-3</v>
       </c>
       <c r="M14" s="3">
-        <v>3.1175999999999999E-3</v>
+        <v>1.4480999999999999E-3</v>
       </c>
       <c r="N14" s="3">
-        <v>1.4607999999999999E-3</v>
+        <v>1.4103E-3</v>
       </c>
       <c r="O14" s="3">
-        <v>1.4480999999999999E-3</v>
+        <v>1.4019E-3</v>
       </c>
       <c r="P14" s="3">
-        <v>1.4103E-3</v>
+        <v>1.0836000000000001E-3</v>
       </c>
       <c r="Q14" s="3">
-        <v>1.4019E-3</v>
+        <v>4.4587000000000001E-4</v>
       </c>
       <c r="R14" s="3">
-        <v>1.0836000000000001E-3</v>
+        <v>4.4192999999999999E-4</v>
       </c>
       <c r="S14" s="3">
-        <v>4.4587000000000001E-4</v>
+        <v>4.415E-4</v>
       </c>
       <c r="T14" s="3">
-        <v>4.4192999999999999E-4</v>
+        <v>4.3711999999999999E-4</v>
       </c>
       <c r="U14" s="3">
-        <v>4.415E-4</v>
+        <v>6.5926999999999999E-4</v>
       </c>
       <c r="V14" s="3">
-        <v>4.3711999999999999E-4</v>
+        <v>3.1116E-4</v>
       </c>
       <c r="W14" s="3">
-        <v>6.5926999999999999E-4</v>
+        <v>3.0364999999999998E-4</v>
       </c>
       <c r="X14" s="3">
-        <v>3.1116E-4</v>
+        <v>3.0184999999999999E-4</v>
       </c>
       <c r="Y14" s="3">
-        <v>3.0364999999999998E-4</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>3.0184999999999999E-4</v>
-      </c>
-      <c r="AA14" s="3">
         <v>3.0095000000000002E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
-      <c r="C15" s="2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3">
+        <v>1.1006E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6.4763000000000001E-2</v>
+      </c>
       <c r="E15" s="3">
+        <v>0.15462000000000001</v>
+      </c>
+      <c r="F15" s="3">
         <v>1.1006E-2</v>
       </c>
-      <c r="F15" s="3">
-        <v>6.4763000000000001E-2</v>
-      </c>
       <c r="G15" s="3">
-        <v>0.15462000000000001</v>
+        <v>1.1006E-2</v>
       </c>
       <c r="H15" s="3">
         <v>1.1006E-2</v>
@@ -1502,70 +1506,70 @@
         <v>1.1006E-2</v>
       </c>
       <c r="K15" s="3">
-        <v>1.1006E-2</v>
+        <v>9.0222000000000002E-4</v>
       </c>
       <c r="L15" s="3">
-        <v>1.1006E-2</v>
+        <v>3.6634999999999999E-4</v>
       </c>
       <c r="M15" s="3">
-        <v>9.0222000000000002E-4</v>
+        <v>3.5571000000000002E-4</v>
       </c>
       <c r="N15" s="3">
-        <v>3.6634999999999999E-4</v>
+        <v>3.5748000000000003E-4</v>
       </c>
       <c r="O15" s="3">
-        <v>3.5571000000000002E-4</v>
+        <v>3.5464999999999997E-4</v>
       </c>
       <c r="P15" s="3">
-        <v>3.5748000000000003E-4</v>
+        <v>2.2311999999999999E-4</v>
       </c>
       <c r="Q15" s="3">
-        <v>3.5464999999999997E-4</v>
+        <v>8.3875000000000006E-5</v>
       </c>
       <c r="R15" s="3">
-        <v>2.2311999999999999E-4</v>
+        <v>8.4375000000000004E-5</v>
       </c>
       <c r="S15" s="3">
-        <v>8.3875000000000006E-5</v>
+        <v>8.475E-5</v>
       </c>
       <c r="T15" s="3">
-        <v>8.4375000000000004E-5</v>
+        <v>8.4250000000000001E-5</v>
       </c>
       <c r="U15" s="3">
-        <v>8.475E-5</v>
+        <v>1.1535E-4</v>
       </c>
       <c r="V15" s="3">
-        <v>8.4250000000000001E-5</v>
+        <v>5.7565999999999997E-5</v>
       </c>
       <c r="W15" s="3">
-        <v>1.1535E-4</v>
+        <v>5.5921000000000002E-5</v>
       </c>
       <c r="X15" s="3">
-        <v>5.7565999999999997E-5</v>
+        <v>5.5043999999999997E-5</v>
       </c>
       <c r="Y15" s="3">
-        <v>5.5921000000000002E-5</v>
-      </c>
-      <c r="Z15" s="3">
         <v>5.5043999999999997E-5</v>
       </c>
-      <c r="AA15" s="3">
-        <v>5.5043999999999997E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27">
-      <c r="C16" s="2">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3">
+        <v>6.5731000000000001E-3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.3089000000000002E-2</v>
+      </c>
       <c r="E16" s="3">
+        <v>0.15201000000000001</v>
+      </c>
+      <c r="F16" s="3">
         <v>6.5731000000000001E-3</v>
       </c>
-      <c r="F16" s="3">
-        <v>4.3089000000000002E-2</v>
-      </c>
       <c r="G16" s="3">
-        <v>0.15201000000000001</v>
+        <v>6.5731000000000001E-3</v>
       </c>
       <c r="H16" s="3">
         <v>6.5731000000000001E-3</v>
@@ -1577,54 +1581,54 @@
         <v>6.5731000000000001E-3</v>
       </c>
       <c r="K16" s="3">
-        <v>6.5731000000000001E-3</v>
+        <v>2.5496999999999998E-4</v>
       </c>
       <c r="L16" s="3">
-        <v>6.5731000000000001E-3</v>
+        <v>8.8869999999999994E-5</v>
       </c>
       <c r="M16" s="3">
-        <v>2.5496999999999998E-4</v>
+        <v>8.7414E-5</v>
       </c>
       <c r="N16" s="3">
-        <v>8.8869999999999994E-5</v>
+        <v>8.5616000000000002E-5</v>
       </c>
       <c r="O16" s="3">
-        <v>8.7414E-5</v>
+        <v>8.5445000000000006E-5</v>
       </c>
       <c r="P16" s="3">
-        <v>8.5616000000000002E-5</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>8.5445000000000006E-5</v>
-      </c>
-      <c r="R16" s="3">
         <v>4.2908999999999999E-5</v>
       </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="U16" s="3">
+        <v>1.7723999999999998E-5</v>
+      </c>
       <c r="V16" s="2"/>
-      <c r="W16" s="3">
-        <v>1.7723999999999998E-5</v>
-      </c>
+      <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="2:32">
-      <c r="C17" s="2">
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>12</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3">
+        <v>4.0981000000000004E-3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.7997999999999999E-2</v>
+      </c>
       <c r="E17" s="3">
+        <v>0.15137</v>
+      </c>
+      <c r="F17" s="3">
         <v>4.0981000000000004E-3</v>
       </c>
-      <c r="F17" s="3">
-        <v>2.7997999999999999E-2</v>
-      </c>
       <c r="G17" s="3">
-        <v>0.15137</v>
+        <v>4.0981000000000004E-3</v>
       </c>
       <c r="H17" s="3">
         <v>4.0981000000000004E-3</v>
@@ -1636,14 +1640,10 @@
         <v>4.0981000000000004E-3</v>
       </c>
       <c r="K17" s="3">
-        <v>4.0981000000000004E-3</v>
-      </c>
-      <c r="L17" s="3">
-        <v>4.0981000000000004E-3</v>
-      </c>
-      <c r="M17" s="3">
         <v>7.2793999999999995E-5</v>
       </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -1656,22 +1656,26 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="2:32">
-      <c r="C18" s="2">
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3">
+        <v>2.5441999999999999E-3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.8275E-2</v>
+      </c>
       <c r="E18" s="3">
+        <v>0.15085999999999999</v>
+      </c>
+      <c r="F18" s="3">
         <v>2.5441999999999999E-3</v>
       </c>
-      <c r="F18" s="3">
-        <v>1.8275E-2</v>
-      </c>
       <c r="G18" s="3">
-        <v>0.15085999999999999</v>
+        <v>2.5441999999999999E-3</v>
       </c>
       <c r="H18" s="3">
         <v>2.5441999999999999E-3</v>
@@ -1682,12 +1686,8 @@
       <c r="J18" s="3">
         <v>2.5441999999999999E-3</v>
       </c>
-      <c r="K18" s="3">
-        <v>2.5441999999999999E-3</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2.5441999999999999E-3</v>
-      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1701,22 +1701,26 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-    </row>
-    <row r="19" spans="2:32">
-      <c r="C19" s="2">
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3">
+        <v>1.5453000000000001E-3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.1849999999999999E-2</v>
+      </c>
       <c r="E19" s="3">
+        <v>0.15062</v>
+      </c>
+      <c r="F19" s="3">
         <v>1.5453000000000001E-3</v>
       </c>
-      <c r="F19" s="3">
-        <v>1.1849999999999999E-2</v>
-      </c>
       <c r="G19" s="3">
-        <v>0.15062</v>
+        <v>1.5453000000000001E-3</v>
       </c>
       <c r="H19" s="3">
         <v>1.5453000000000001E-3</v>
@@ -1727,12 +1731,8 @@
       <c r="J19" s="3">
         <v>1.5453000000000001E-3</v>
       </c>
-      <c r="K19" s="3">
-        <v>1.5453000000000001E-3</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1.5453000000000001E-3</v>
-      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1746,22 +1746,26 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-    </row>
-    <row r="20" spans="2:32">
-      <c r="C20" s="2">
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <v>1.0321E-3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7.5906999999999997E-3</v>
+      </c>
       <c r="E20" s="3">
+        <v>0.15081</v>
+      </c>
+      <c r="F20" s="3">
         <v>1.0321E-3</v>
       </c>
-      <c r="F20" s="3">
-        <v>7.5906999999999997E-3</v>
-      </c>
       <c r="G20" s="3">
-        <v>0.15081</v>
+        <v>1.0321E-3</v>
       </c>
       <c r="H20" s="3">
         <v>1.0321E-3</v>
@@ -1772,12 +1776,8 @@
       <c r="J20" s="3">
         <v>1.0321E-3</v>
       </c>
-      <c r="K20" s="3">
-        <v>1.0321E-3</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1.0321E-3</v>
-      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1791,22 +1791,26 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-    </row>
-    <row r="21" spans="2:32">
-      <c r="C21" s="2">
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <v>6.3201999999999996E-4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4.9113999999999998E-3</v>
+      </c>
       <c r="E21" s="3">
+        <v>0.15087999999999999</v>
+      </c>
+      <c r="F21" s="3">
         <v>6.3201999999999996E-4</v>
       </c>
-      <c r="F21" s="3">
-        <v>4.9113999999999998E-3</v>
-      </c>
       <c r="G21" s="3">
-        <v>0.15087999999999999</v>
+        <v>6.3201999999999996E-4</v>
       </c>
       <c r="H21" s="3">
         <v>6.3201999999999996E-4</v>
@@ -1817,12 +1821,8 @@
       <c r="J21" s="3">
         <v>6.3201999999999996E-4</v>
       </c>
-      <c r="K21" s="3">
-        <v>6.3201999999999996E-4</v>
-      </c>
-      <c r="L21" s="3">
-        <v>6.3201999999999996E-4</v>
-      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1836,174 +1836,175 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-    </row>
-    <row r="22" spans="2:32">
-      <c r="T22" t="s">
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R22" t="s">
         <v>19</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="W22" t="s">
         <v>20</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AB22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:32">
-      <c r="C23" s="2" t="s">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="K23" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
+      <c r="P23" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="Q23" s="9"/>
-      <c r="R23" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
+      <c r="U23" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="V23" s="9"/>
-      <c r="W23" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
+      <c r="Z23" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="AA23" s="9"/>
-      <c r="AB23" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-    </row>
-    <row r="24" spans="2:32">
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="S24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="U24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="V24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="W24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="X24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V24" s="2" t="s">
+      <c r="Y24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W24" s="2" t="s">
+      <c r="Z24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="X24" s="2" t="s">
+      <c r="AA24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Y24" s="2" t="s">
+      <c r="AB24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Z24" s="2" t="s">
+      <c r="AC24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AA24" s="2" t="s">
+      <c r="AD24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AB24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32">
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2">
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>-10</v>
       </c>
+      <c r="B25" s="3">
+        <v>0.10808</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.18490999999999999</v>
+      </c>
       <c r="D25" s="3">
-        <v>0.10808</v>
+        <v>0.38590999999999998</v>
       </c>
       <c r="E25" s="3">
+        <v>0.22614999999999999</v>
+      </c>
+      <c r="F25" s="3">
         <v>0.18490999999999999</v>
       </c>
-      <c r="F25" s="3">
-        <v>0.38590999999999998</v>
-      </c>
       <c r="G25" s="3">
-        <v>0.22614999999999999</v>
+        <v>0.18490999999999999</v>
       </c>
       <c r="H25" s="3">
         <v>0.18490999999999999</v>
@@ -2015,87 +2016,87 @@
         <v>0.18490999999999999</v>
       </c>
       <c r="K25" s="3">
-        <v>0.18490999999999999</v>
+        <v>0.18368000000000001</v>
       </c>
       <c r="L25" s="3">
-        <v>0.18490999999999999</v>
+        <v>0.18440999999999999</v>
       </c>
       <c r="M25" s="3">
-        <v>0.18368000000000001</v>
+        <v>0.1835</v>
       </c>
       <c r="N25" s="3">
-        <v>0.18440999999999999</v>
+        <v>0.18314</v>
       </c>
       <c r="O25" s="3">
-        <v>0.1835</v>
+        <v>0.18278</v>
       </c>
       <c r="P25" s="3">
-        <v>0.18314</v>
+        <v>0.18190000000000001</v>
       </c>
       <c r="Q25" s="3">
-        <v>0.18278</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="R25" s="3">
-        <v>0.18190000000000001</v>
+        <v>0.18262</v>
       </c>
       <c r="S25" s="3">
-        <v>0.18099999999999999</v>
+        <v>0.18207999999999999</v>
       </c>
       <c r="T25" s="3">
-        <v>0.18262</v>
+        <v>0.18226000000000001</v>
       </c>
       <c r="U25" s="3">
-        <v>0.18207999999999999</v>
+        <v>0.18426999999999999</v>
       </c>
       <c r="V25" s="3">
-        <v>0.18226000000000001</v>
+        <v>0.18032000000000001</v>
       </c>
       <c r="W25" s="3">
-        <v>0.18426999999999999</v>
+        <v>0.18013999999999999</v>
       </c>
       <c r="X25" s="3">
-        <v>0.18032000000000001</v>
+        <v>0.17996000000000001</v>
       </c>
       <c r="Y25" s="3">
         <v>0.18013999999999999</v>
       </c>
       <c r="Z25" s="3">
-        <v>0.17996000000000001</v>
+        <v>0.18271000000000001</v>
       </c>
       <c r="AA25" s="3">
-        <v>0.18013999999999999</v>
+        <v>0.17915</v>
       </c>
       <c r="AB25" s="3">
-        <v>0.18271000000000001</v>
+        <v>0.17879999999999999</v>
       </c>
       <c r="AC25" s="3">
-        <v>0.17915</v>
+        <v>0.17791000000000001</v>
       </c>
       <c r="AD25" s="3">
-        <v>0.17879999999999999</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>0.17791000000000001</v>
-      </c>
-      <c r="AF25" s="3">
         <v>0.17809</v>
       </c>
     </row>
-    <row r="26" spans="2:32">
-      <c r="C26" s="2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>-8</v>
       </c>
+      <c r="B26" s="3">
+        <v>6.0919000000000001E-2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.14482</v>
+      </c>
       <c r="D26" s="3">
-        <v>6.0919000000000001E-2</v>
+        <v>0.36053000000000002</v>
       </c>
       <c r="E26" s="3">
+        <v>0.2011</v>
+      </c>
+      <c r="F26" s="3">
         <v>0.14482</v>
       </c>
-      <c r="F26" s="3">
-        <v>0.36053000000000002</v>
-      </c>
       <c r="G26" s="3">
-        <v>0.2011</v>
+        <v>0.14482</v>
       </c>
       <c r="H26" s="3">
         <v>0.14482</v>
@@ -2107,87 +2108,87 @@
         <v>0.14482</v>
       </c>
       <c r="K26" s="3">
-        <v>0.14482</v>
+        <v>0.13652</v>
       </c>
       <c r="L26" s="3">
-        <v>0.14482</v>
+        <v>0.13439999999999999</v>
       </c>
       <c r="M26" s="3">
-        <v>0.13652</v>
+        <v>0.13347000000000001</v>
       </c>
       <c r="N26" s="3">
-        <v>0.13439999999999999</v>
+        <v>0.13321</v>
       </c>
       <c r="O26" s="3">
-        <v>0.13347000000000001</v>
+        <v>0.13267999999999999</v>
       </c>
       <c r="P26" s="3">
-        <v>0.13321</v>
+        <v>0.13389000000000001</v>
       </c>
       <c r="Q26" s="3">
-        <v>0.13267999999999999</v>
+        <v>0.1318</v>
       </c>
       <c r="R26" s="3">
-        <v>0.13389000000000001</v>
+        <v>0.13128000000000001</v>
       </c>
       <c r="S26" s="3">
         <v>0.1318</v>
       </c>
       <c r="T26" s="3">
-        <v>0.13128000000000001</v>
+        <v>0.13153999999999999</v>
       </c>
       <c r="U26" s="3">
-        <v>0.1318</v>
+        <v>0.13450999999999999</v>
       </c>
       <c r="V26" s="3">
-        <v>0.13153999999999999</v>
+        <v>0.13034000000000001</v>
       </c>
       <c r="W26" s="3">
-        <v>0.13450999999999999</v>
+        <v>0.13150999999999999</v>
       </c>
       <c r="X26" s="3">
-        <v>0.13034000000000001</v>
+        <v>0.13086</v>
       </c>
       <c r="Y26" s="3">
-        <v>0.13150999999999999</v>
+        <v>0.13059999999999999</v>
       </c>
       <c r="Z26" s="3">
-        <v>0.13086</v>
+        <v>0.13284000000000001</v>
       </c>
       <c r="AA26" s="3">
-        <v>0.13059999999999999</v>
+        <v>0.12912000000000001</v>
       </c>
       <c r="AB26" s="3">
-        <v>0.13284000000000001</v>
+        <v>0.12923999999999999</v>
       </c>
       <c r="AC26" s="3">
-        <v>0.12912000000000001</v>
+        <v>0.12898999999999999</v>
       </c>
       <c r="AD26" s="3">
-        <v>0.12923999999999999</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>0.12898999999999999</v>
-      </c>
-      <c r="AF26" s="3">
         <v>0.12859999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:32">
-      <c r="C27" s="2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>-6</v>
       </c>
+      <c r="B27" s="3">
+        <v>2.5772E-2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.106</v>
+      </c>
       <c r="D27" s="3">
-        <v>2.5772E-2</v>
+        <v>0.32474999999999998</v>
       </c>
       <c r="E27" s="3">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="F27" s="3">
         <v>0.106</v>
       </c>
-      <c r="F27" s="3">
-        <v>0.32474999999999998</v>
-      </c>
       <c r="G27" s="3">
-        <v>0.18379999999999999</v>
+        <v>0.106</v>
       </c>
       <c r="H27" s="3">
         <v>0.106</v>
@@ -2199,87 +2200,87 @@
         <v>0.106</v>
       </c>
       <c r="K27" s="3">
-        <v>0.106</v>
+        <v>9.6794000000000005E-2</v>
       </c>
       <c r="L27" s="3">
-        <v>0.106</v>
+        <v>9.1243000000000005E-2</v>
       </c>
       <c r="M27" s="3">
-        <v>9.6794000000000005E-2</v>
+        <v>9.0437000000000003E-2</v>
       </c>
       <c r="N27" s="3">
-        <v>9.1243000000000005E-2</v>
+        <v>8.9989E-2</v>
       </c>
       <c r="O27" s="3">
-        <v>9.0437000000000003E-2</v>
+        <v>8.9810000000000001E-2</v>
       </c>
       <c r="P27" s="3">
-        <v>8.9989E-2</v>
+        <v>9.1397999999999993E-2</v>
       </c>
       <c r="Q27" s="3">
-        <v>8.9810000000000001E-2</v>
+        <v>8.6945999999999996E-2</v>
       </c>
       <c r="R27" s="3">
-        <v>9.1397999999999993E-2</v>
+        <v>8.4425E-2</v>
       </c>
       <c r="S27" s="3">
-        <v>8.6945999999999996E-2</v>
+        <v>8.5181000000000007E-2</v>
       </c>
       <c r="T27" s="3">
-        <v>8.4425E-2</v>
+        <v>8.5852999999999999E-2</v>
       </c>
       <c r="U27" s="3">
-        <v>8.5181000000000007E-2</v>
+        <v>9.0923000000000004E-2</v>
       </c>
       <c r="V27" s="3">
-        <v>8.5852999999999999E-2</v>
+        <v>8.2364999999999994E-2</v>
       </c>
       <c r="W27" s="3">
-        <v>9.0923000000000004E-2</v>
+        <v>8.0402000000000001E-2</v>
       </c>
       <c r="X27" s="3">
-        <v>8.2364999999999994E-2</v>
+        <v>7.8674999999999995E-2</v>
       </c>
       <c r="Y27" s="3">
-        <v>8.0402000000000001E-2</v>
+        <v>7.9224000000000003E-2</v>
       </c>
       <c r="Z27" s="3">
-        <v>7.8674999999999995E-2</v>
+        <v>8.8996000000000006E-2</v>
       </c>
       <c r="AA27" s="3">
-        <v>7.9224000000000003E-2</v>
+        <v>8.0579999999999999E-2</v>
       </c>
       <c r="AB27" s="3">
-        <v>8.8996000000000006E-2</v>
+        <v>7.8865000000000005E-2</v>
       </c>
       <c r="AC27" s="3">
-        <v>8.0579999999999999E-2</v>
+        <v>7.8007999999999994E-2</v>
       </c>
       <c r="AD27" s="3">
-        <v>7.8865000000000005E-2</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>7.8007999999999994E-2</v>
-      </c>
-      <c r="AF27" s="3">
         <v>7.8553999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:32">
-      <c r="C28" s="2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>-4</v>
       </c>
+      <c r="B28" s="3">
+        <v>8.3289000000000002E-3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7.6969999999999997E-2</v>
+      </c>
       <c r="D28" s="3">
-        <v>8.3289000000000002E-3</v>
+        <v>0.28978999999999999</v>
       </c>
       <c r="E28" s="3">
+        <v>0.17357</v>
+      </c>
+      <c r="F28" s="3">
         <v>7.6969999999999997E-2</v>
       </c>
-      <c r="F28" s="3">
-        <v>0.28978999999999999</v>
-      </c>
       <c r="G28" s="3">
-        <v>0.17357</v>
+        <v>7.6969999999999997E-2</v>
       </c>
       <c r="H28" s="3">
         <v>7.6969999999999997E-2</v>
@@ -2291,87 +2292,87 @@
         <v>7.6969999999999997E-2</v>
       </c>
       <c r="K28" s="3">
-        <v>7.6969999999999997E-2</v>
+        <v>6.2061999999999999E-2</v>
       </c>
       <c r="L28" s="3">
-        <v>7.6969999999999997E-2</v>
+        <v>5.0331000000000001E-2</v>
       </c>
       <c r="M28" s="3">
-        <v>6.2061999999999999E-2</v>
+        <v>4.9113999999999998E-2</v>
       </c>
       <c r="N28" s="3">
-        <v>5.0331000000000001E-2</v>
+        <v>4.8724999999999997E-2</v>
       </c>
       <c r="O28" s="3">
-        <v>4.9113999999999998E-2</v>
+        <v>4.8821999999999997E-2</v>
       </c>
       <c r="P28" s="3">
-        <v>4.8724999999999997E-2</v>
+        <v>5.5201E-2</v>
       </c>
       <c r="Q28" s="3">
-        <v>4.8821999999999997E-2</v>
+        <v>4.0603E-2</v>
       </c>
       <c r="R28" s="3">
-        <v>5.5201E-2</v>
+        <v>3.7962000000000003E-2</v>
       </c>
       <c r="S28" s="3">
-        <v>4.0603E-2</v>
+        <v>3.7374999999999999E-2</v>
       </c>
       <c r="T28" s="3">
-        <v>3.7962000000000003E-2</v>
+        <v>3.6678000000000002E-2</v>
       </c>
       <c r="U28" s="3">
-        <v>3.7374999999999999E-2</v>
+        <v>5.2051E-2</v>
       </c>
       <c r="V28" s="3">
-        <v>3.6678000000000002E-2</v>
+        <v>3.6249000000000003E-2</v>
       </c>
       <c r="W28" s="3">
-        <v>5.2051E-2</v>
+        <v>3.3281999999999999E-2</v>
       </c>
       <c r="X28" s="3">
-        <v>3.6249000000000003E-2</v>
+        <v>3.3056000000000002E-2</v>
       </c>
       <c r="Y28" s="3">
-        <v>3.3281999999999999E-2</v>
+        <v>3.2281999999999998E-2</v>
       </c>
       <c r="Z28" s="3">
-        <v>3.3056000000000002E-2</v>
+        <v>5.0633999999999998E-2</v>
       </c>
       <c r="AA28" s="3">
-        <v>3.2281999999999998E-2</v>
+        <v>3.5722999999999998E-2</v>
       </c>
       <c r="AB28" s="3">
-        <v>5.0633999999999998E-2</v>
+        <v>3.2150999999999999E-2</v>
       </c>
       <c r="AC28" s="3">
-        <v>3.5722999999999998E-2</v>
+        <v>3.1373999999999999E-2</v>
       </c>
       <c r="AD28" s="3">
-        <v>3.2150999999999999E-2</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>3.1373999999999999E-2</v>
-      </c>
-      <c r="AF28" s="3">
         <v>3.1157000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:32">
-      <c r="C29" s="2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>-2</v>
       </c>
+      <c r="B29" s="3">
+        <v>1.573E-3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5.1652999999999998E-2</v>
+      </c>
       <c r="D29" s="3">
-        <v>1.573E-3</v>
+        <v>0.24560999999999999</v>
       </c>
       <c r="E29" s="3">
+        <v>0.16829</v>
+      </c>
+      <c r="F29" s="3">
         <v>5.1652999999999998E-2</v>
       </c>
-      <c r="F29" s="3">
-        <v>0.24560999999999999</v>
-      </c>
       <c r="G29" s="3">
-        <v>0.16829</v>
+        <v>5.1652999999999998E-2</v>
       </c>
       <c r="H29" s="3">
         <v>5.1652999999999998E-2</v>
@@ -2383,87 +2384,87 @@
         <v>5.1652999999999998E-2</v>
       </c>
       <c r="K29" s="3">
-        <v>5.1652999999999998E-2</v>
+        <v>3.4208000000000002E-2</v>
       </c>
       <c r="L29" s="3">
-        <v>5.1652999999999998E-2</v>
+        <v>2.1218999999999998E-2</v>
       </c>
       <c r="M29" s="3">
-        <v>3.4208000000000002E-2</v>
+        <v>1.9886000000000001E-2</v>
       </c>
       <c r="N29" s="3">
-        <v>2.1218999999999998E-2</v>
+        <v>1.9632E-2</v>
       </c>
       <c r="O29" s="3">
-        <v>1.9886000000000001E-2</v>
+        <v>1.9591999999999998E-2</v>
       </c>
       <c r="P29" s="3">
-        <v>1.9632E-2</v>
+        <v>2.6009999999999998E-2</v>
       </c>
       <c r="Q29" s="3">
-        <v>1.9591999999999998E-2</v>
+        <v>1.2208999999999999E-2</v>
       </c>
       <c r="R29" s="3">
-        <v>2.6009999999999998E-2</v>
+        <v>1.0410000000000001E-2</v>
       </c>
       <c r="S29" s="3">
-        <v>1.2208999999999999E-2</v>
+        <v>1.0113E-2</v>
       </c>
       <c r="T29" s="3">
-        <v>1.0410000000000001E-2</v>
+        <v>9.9454000000000001E-3</v>
       </c>
       <c r="U29" s="3">
-        <v>1.0113E-2</v>
+        <v>2.1259E-2</v>
       </c>
       <c r="V29" s="3">
-        <v>9.9454000000000001E-3</v>
+        <v>9.6287000000000005E-3</v>
       </c>
       <c r="W29" s="3">
-        <v>2.1259E-2</v>
+        <v>8.3365000000000002E-3</v>
       </c>
       <c r="X29" s="3">
-        <v>9.6287000000000005E-3</v>
+        <v>8.0055000000000005E-3</v>
       </c>
       <c r="Y29" s="3">
-        <v>8.3365000000000002E-3</v>
+        <v>7.9030999999999997E-3</v>
       </c>
       <c r="Z29" s="3">
-        <v>8.0055000000000005E-3</v>
+        <v>1.9597E-2</v>
       </c>
       <c r="AA29" s="3">
-        <v>7.9030999999999997E-3</v>
+        <v>8.8766999999999995E-3</v>
       </c>
       <c r="AB29" s="3">
-        <v>1.9597E-2</v>
+        <v>7.4815000000000003E-3</v>
       </c>
       <c r="AC29" s="3">
-        <v>8.8766999999999995E-3</v>
+        <v>7.1682999999999998E-3</v>
       </c>
       <c r="AD29" s="3">
-        <v>7.4815000000000003E-3</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>7.1682999999999998E-3</v>
-      </c>
-      <c r="AF29" s="3">
         <v>7.1184999999999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:32">
-      <c r="C30" s="2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>0</v>
       </c>
+      <c r="B30" s="3">
+        <v>1.7543999999999999E-4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3.3565999999999999E-2</v>
+      </c>
       <c r="D30" s="3">
-        <v>1.7543999999999999E-4</v>
+        <v>0.20263999999999999</v>
       </c>
       <c r="E30" s="3">
+        <v>0.16256000000000001</v>
+      </c>
+      <c r="F30" s="3">
         <v>3.3565999999999999E-2</v>
       </c>
-      <c r="F30" s="3">
-        <v>0.20263999999999999</v>
-      </c>
       <c r="G30" s="3">
-        <v>0.16256000000000001</v>
+        <v>3.3565999999999999E-2</v>
       </c>
       <c r="H30" s="3">
         <v>3.3565999999999999E-2</v>
@@ -2475,82 +2476,78 @@
         <v>3.3565999999999999E-2</v>
       </c>
       <c r="K30" s="3">
-        <v>3.3565999999999999E-2</v>
+        <v>1.4964E-2</v>
       </c>
       <c r="L30" s="3">
-        <v>3.3565999999999999E-2</v>
+        <v>6.4761999999999997E-3</v>
       </c>
       <c r="M30" s="3">
-        <v>1.4964E-2</v>
+        <v>6.0594999999999998E-3</v>
       </c>
       <c r="N30" s="3">
-        <v>6.4761999999999997E-3</v>
+        <v>5.9702000000000002E-3</v>
       </c>
       <c r="O30" s="3">
-        <v>6.0594999999999998E-3</v>
+        <v>5.9762000000000001E-3</v>
       </c>
       <c r="P30" s="3">
-        <v>5.9702000000000002E-3</v>
+        <v>7.9646999999999999E-3</v>
       </c>
       <c r="Q30" s="3">
-        <v>5.9762000000000001E-3</v>
+        <v>2.3625999999999999E-3</v>
       </c>
       <c r="R30" s="3">
-        <v>7.9646999999999999E-3</v>
+        <v>2.0281000000000001E-3</v>
       </c>
       <c r="S30" s="3">
-        <v>2.3625999999999999E-3</v>
+        <v>1.9562E-3</v>
       </c>
       <c r="T30" s="3">
-        <v>2.0281000000000001E-3</v>
+        <v>1.9445E-3</v>
       </c>
       <c r="U30" s="3">
-        <v>1.9562E-3</v>
+        <v>5.9246000000000004E-3</v>
       </c>
       <c r="V30" s="3">
-        <v>1.9445E-3</v>
+        <v>1.4949E-3</v>
       </c>
       <c r="W30" s="3">
-        <v>5.9246000000000004E-3</v>
+        <v>1.2733E-3</v>
       </c>
       <c r="X30" s="3">
-        <v>1.4949E-3</v>
+        <v>1.2463999999999999E-3</v>
       </c>
       <c r="Y30" s="3">
-        <v>1.2733E-3</v>
+        <v>1.2340999999999999E-3</v>
       </c>
       <c r="Z30" s="3">
-        <v>1.2463999999999999E-3</v>
+        <v>5.1072000000000001E-3</v>
       </c>
       <c r="AA30" s="3">
-        <v>1.2340999999999999E-3</v>
+        <v>1.3029999999999999E-3</v>
       </c>
       <c r="AB30" s="3">
-        <v>5.1072000000000001E-3</v>
+        <v>1.1218000000000001E-3</v>
       </c>
       <c r="AC30" s="3">
-        <v>1.3029999999999999E-3</v>
+        <v>1.0956E-3</v>
       </c>
       <c r="AD30" s="3">
-        <v>1.1218000000000001E-3</v>
-      </c>
-      <c r="AE30" s="3">
-        <v>1.0956E-3</v>
-      </c>
-      <c r="AF30" s="3">
         <v>1.0912999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:32">
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
         <v>4.3229000000000002E-5</v>
       </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2564,8 +2561,8 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
@@ -2574,24 +2571,28 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-    </row>
-    <row r="32" spans="2:32">
-      <c r="C32" s="2">
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>2</v>
       </c>
+      <c r="B32" s="3">
+        <v>8.7852000000000002E-6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.9892E-2</v>
+      </c>
       <c r="D32" s="3">
-        <v>8.7852000000000002E-6</v>
+        <v>0.15808</v>
       </c>
       <c r="E32" s="3">
+        <v>0.15953000000000001</v>
+      </c>
+      <c r="F32" s="3">
         <v>1.9892E-2</v>
       </c>
-      <c r="F32" s="3">
-        <v>0.15808</v>
-      </c>
       <c r="G32" s="3">
-        <v>0.15953000000000001</v>
+        <v>1.9892E-2</v>
       </c>
       <c r="H32" s="3">
         <v>1.9892E-2</v>
@@ -2603,85 +2604,85 @@
         <v>1.9892E-2</v>
       </c>
       <c r="K32" s="3">
-        <v>1.9892E-2</v>
+        <v>4.8538000000000001E-3</v>
       </c>
       <c r="L32" s="3">
-        <v>1.9892E-2</v>
+        <v>1.3055E-3</v>
       </c>
       <c r="M32" s="3">
-        <v>4.8538000000000001E-3</v>
+        <v>1.2179000000000001E-3</v>
       </c>
       <c r="N32" s="3">
-        <v>1.3055E-3</v>
+        <v>1.2034999999999999E-3</v>
       </c>
       <c r="O32" s="3">
-        <v>1.2179000000000001E-3</v>
+        <v>1.2011000000000001E-3</v>
       </c>
       <c r="P32" s="3">
-        <v>1.2034999999999999E-3</v>
+        <v>2.0089999999999999E-3</v>
       </c>
       <c r="Q32" s="3">
-        <v>1.2011000000000001E-3</v>
+        <v>3.7767999999999998E-4</v>
       </c>
       <c r="R32" s="3">
-        <v>2.0089999999999999E-3</v>
+        <v>3.4371E-4</v>
       </c>
       <c r="S32" s="3">
-        <v>3.7767999999999998E-4</v>
+        <v>3.3971000000000001E-4</v>
       </c>
       <c r="T32" s="3">
-        <v>3.4371E-4</v>
+        <v>3.3438000000000001E-4</v>
       </c>
       <c r="U32" s="3">
-        <v>3.3971000000000001E-4</v>
+        <v>1.2643000000000001E-3</v>
       </c>
       <c r="V32" s="3">
-        <v>3.3438000000000001E-4</v>
+        <v>2.3704999999999999E-4</v>
       </c>
       <c r="W32" s="3">
-        <v>1.2643000000000001E-3</v>
+        <v>2.1853000000000001E-4</v>
       </c>
       <c r="X32" s="3">
-        <v>2.3704999999999999E-4</v>
+        <v>2.1562E-4</v>
       </c>
       <c r="Y32" s="3">
-        <v>2.1853000000000001E-4</v>
+        <v>2.1451E-4</v>
       </c>
       <c r="Z32" s="3">
-        <v>2.1562E-4</v>
+        <v>9.8090000000000004E-4</v>
       </c>
       <c r="AA32" s="3">
-        <v>2.1451E-4</v>
+        <v>2.0034999999999999E-4</v>
       </c>
       <c r="AB32" s="3">
-        <v>9.8090000000000004E-4</v>
+        <v>1.8437E-4</v>
       </c>
       <c r="AC32" s="3">
-        <v>2.0034999999999999E-4</v>
+        <v>1.7813E-4</v>
       </c>
       <c r="AD32" s="3">
-        <v>1.8437E-4</v>
-      </c>
-      <c r="AE32" s="3">
-        <v>1.7813E-4</v>
-      </c>
-      <c r="AF32" s="3">
         <v>1.7604E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:32">
-      <c r="C33" s="2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>4</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3">
+        <v>1.1806000000000001E-2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.12193</v>
+      </c>
       <c r="E33" s="3">
+        <v>0.15795000000000001</v>
+      </c>
+      <c r="F33" s="3">
         <v>1.1806000000000001E-2</v>
       </c>
-      <c r="F33" s="3">
-        <v>0.12193</v>
-      </c>
       <c r="G33" s="3">
-        <v>0.15795000000000001</v>
+        <v>1.1806000000000001E-2</v>
       </c>
       <c r="H33" s="3">
         <v>1.1806000000000001E-2</v>
@@ -2693,85 +2694,85 @@
         <v>1.1806000000000001E-2</v>
       </c>
       <c r="K33" s="3">
-        <v>1.1806000000000001E-2</v>
+        <v>1.4932999999999999E-3</v>
       </c>
       <c r="L33" s="3">
-        <v>1.1806000000000001E-2</v>
+        <v>2.6729E-4</v>
       </c>
       <c r="M33" s="3">
-        <v>1.4932999999999999E-3</v>
+        <v>2.5183999999999997E-4</v>
       </c>
       <c r="N33" s="3">
-        <v>2.6729E-4</v>
+        <v>2.4934000000000002E-4</v>
       </c>
       <c r="O33" s="3">
-        <v>2.5183999999999997E-4</v>
+        <v>2.4983999999999998E-4</v>
       </c>
       <c r="P33" s="3">
-        <v>2.4934000000000002E-4</v>
+        <v>4.1679E-4</v>
       </c>
       <c r="Q33" s="3">
-        <v>2.4983999999999998E-4</v>
+        <v>6.2744999999999996E-5</v>
       </c>
       <c r="R33" s="3">
-        <v>4.1679E-4</v>
+        <v>5.8394999999999999E-5</v>
       </c>
       <c r="S33" s="3">
-        <v>6.2744999999999996E-5</v>
+        <v>5.6984999999999997E-5</v>
       </c>
       <c r="T33" s="3">
-        <v>5.8394999999999999E-5</v>
+        <v>5.6372999999999997E-5</v>
       </c>
       <c r="U33" s="3">
-        <v>5.6984999999999997E-5</v>
+        <v>2.2005000000000001E-4</v>
       </c>
       <c r="V33" s="3">
-        <v>5.6372999999999997E-5</v>
+        <v>4.8436999999999997E-5</v>
       </c>
       <c r="W33" s="3">
-        <v>2.2005000000000001E-4</v>
+        <v>4.6745000000000001E-5</v>
       </c>
       <c r="X33" s="3">
-        <v>4.8436999999999997E-5</v>
+        <v>4.5572999999999999E-5</v>
       </c>
       <c r="Y33" s="3">
-        <v>4.6745000000000001E-5</v>
+        <v>4.5572999999999999E-5</v>
       </c>
       <c r="Z33" s="3">
-        <v>4.5572999999999999E-5</v>
+        <v>1.5859000000000001E-4</v>
       </c>
       <c r="AA33" s="3">
-        <v>4.5572999999999999E-5</v>
+        <v>3.6848999999999999E-5</v>
       </c>
       <c r="AB33" s="3">
-        <v>1.5859000000000001E-4</v>
+        <v>3.5546999999999997E-5</v>
       </c>
       <c r="AC33" s="3">
-        <v>3.6848999999999999E-5</v>
+        <v>3.4895999999999999E-5</v>
       </c>
       <c r="AD33" s="3">
-        <v>3.5546999999999997E-5</v>
-      </c>
-      <c r="AE33" s="3">
-        <v>3.4895999999999999E-5</v>
-      </c>
-      <c r="AF33" s="3">
         <v>3.5026E-5</v>
       </c>
     </row>
-    <row r="34" spans="2:32">
-      <c r="C34" s="2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>6</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3">
+        <v>6.6559999999999996E-3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>8.8325000000000001E-2</v>
+      </c>
       <c r="E34" s="3">
+        <v>0.15701000000000001</v>
+      </c>
+      <c r="F34" s="3">
         <v>6.6559999999999996E-3</v>
       </c>
-      <c r="F34" s="3">
-        <v>8.8325000000000001E-2</v>
-      </c>
       <c r="G34" s="3">
-        <v>0.15701000000000001</v>
+        <v>6.6559999999999996E-3</v>
       </c>
       <c r="H34" s="3">
         <v>6.6559999999999996E-3</v>
@@ -2783,61 +2784,61 @@
         <v>6.6559999999999996E-3</v>
       </c>
       <c r="K34" s="3">
-        <v>6.6559999999999996E-3</v>
+        <v>3.7296999999999997E-4</v>
       </c>
       <c r="L34" s="3">
-        <v>6.6559999999999996E-3</v>
+        <v>4.7212999999999997E-5</v>
       </c>
       <c r="M34" s="3">
-        <v>3.7296999999999997E-4</v>
+        <v>4.299E-5</v>
       </c>
       <c r="N34" s="3">
-        <v>4.7212999999999997E-5</v>
+        <v>4.2398999999999998E-5</v>
       </c>
       <c r="O34" s="3">
-        <v>4.299E-5</v>
-      </c>
-      <c r="P34" s="3">
-        <v>4.2398999999999998E-5</v>
-      </c>
-      <c r="Q34" s="3">
         <v>4.3328000000000003E-5</v>
       </c>
-      <c r="R34" s="4">
+      <c r="P34" s="4">
         <v>7.0573000000000003E-5</v>
       </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
+      <c r="U34" s="3">
+        <v>2.5272000000000001E-5</v>
+      </c>
       <c r="V34" s="2"/>
-      <c r="W34" s="3">
-        <v>2.5272000000000001E-5</v>
-      </c>
+      <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
+      <c r="Z34" s="3">
+        <v>1.9956999999999999E-5</v>
+      </c>
       <c r="AA34" s="2"/>
-      <c r="AB34" s="3">
-        <v>1.9956999999999999E-5</v>
-      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-    </row>
-    <row r="35" spans="2:32">
-      <c r="C35" s="2">
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>8</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3">
+        <v>3.5355E-3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>6.2557000000000001E-2</v>
+      </c>
       <c r="E35" s="3">
+        <v>0.15628</v>
+      </c>
+      <c r="F35" s="3">
         <v>3.5355E-3</v>
       </c>
-      <c r="F35" s="3">
-        <v>6.2557000000000001E-2</v>
-      </c>
       <c r="G35" s="3">
-        <v>0.15628</v>
+        <v>3.5355E-3</v>
       </c>
       <c r="H35" s="3">
         <v>3.5355E-3</v>
@@ -2848,15 +2849,11 @@
       <c r="J35" s="3">
         <v>3.5355E-3</v>
       </c>
-      <c r="K35" s="3">
-        <v>3.5355E-3</v>
-      </c>
-      <c r="L35" s="3">
-        <v>3.5355E-3</v>
-      </c>
-      <c r="M35" s="4">
+      <c r="K35" s="4">
         <v>8.8125000000000001E-5</v>
       </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -2874,22 +2871,26 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-    </row>
-    <row r="36" spans="2:32">
-      <c r="C36" s="2">
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>10</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3">
+        <v>2.0059000000000001E-3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4.1763000000000002E-2</v>
+      </c>
       <c r="E36" s="3">
+        <v>0.15593000000000001</v>
+      </c>
+      <c r="F36" s="3">
         <v>2.0059000000000001E-3</v>
       </c>
-      <c r="F36" s="3">
-        <v>4.1763000000000002E-2</v>
-      </c>
       <c r="G36" s="3">
-        <v>0.15593000000000001</v>
+        <v>2.0059000000000001E-3</v>
       </c>
       <c r="H36" s="3">
         <v>2.0059000000000001E-3</v>
@@ -2900,12 +2901,8 @@
       <c r="J36" s="3">
         <v>2.0059000000000001E-3</v>
       </c>
-      <c r="K36" s="3">
-        <v>2.0059000000000001E-3</v>
-      </c>
-      <c r="L36" s="3">
-        <v>2.0059000000000001E-3</v>
-      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2924,22 +2921,26 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-    </row>
-    <row r="37" spans="2:32">
-      <c r="C37" s="2">
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>12</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3">
+        <v>1.1735999999999999E-3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2.7785000000000001E-2</v>
+      </c>
       <c r="E37" s="3">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="F37" s="3">
         <v>1.1735999999999999E-3</v>
       </c>
-      <c r="F37" s="3">
-        <v>2.7785000000000001E-2</v>
-      </c>
       <c r="G37" s="3">
-        <v>0.15570000000000001</v>
+        <v>1.1735999999999999E-3</v>
       </c>
       <c r="H37" s="3">
         <v>1.1735999999999999E-3</v>
@@ -2950,12 +2951,8 @@
       <c r="J37" s="3">
         <v>1.1735999999999999E-3</v>
       </c>
-      <c r="K37" s="3">
-        <v>1.1735999999999999E-3</v>
-      </c>
-      <c r="L37" s="3">
-        <v>1.1735999999999999E-3</v>
-      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2974,22 +2971,26 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-    </row>
-    <row r="38" spans="2:32">
-      <c r="C38" s="2">
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>14</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3">
+        <v>7.2630999999999998E-4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.8291000000000002E-2</v>
+      </c>
       <c r="E38" s="3">
+        <v>0.15493999999999999</v>
+      </c>
+      <c r="F38" s="3">
         <v>7.2630999999999998E-4</v>
       </c>
-      <c r="F38" s="3">
-        <v>1.8291000000000002E-2</v>
-      </c>
       <c r="G38" s="3">
-        <v>0.15493999999999999</v>
+        <v>7.2630999999999998E-4</v>
       </c>
       <c r="H38" s="3">
         <v>7.2630999999999998E-4</v>
@@ -3000,12 +3001,8 @@
       <c r="J38" s="3">
         <v>7.2630999999999998E-4</v>
       </c>
-      <c r="K38" s="3">
-        <v>7.2630999999999998E-4</v>
-      </c>
-      <c r="L38" s="3">
-        <v>7.2630999999999998E-4</v>
-      </c>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3024,22 +3021,26 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-    </row>
-    <row r="39" spans="2:32">
-      <c r="C39" s="2">
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>16</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3">
+        <v>4.2504000000000001E-4</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.1965E-2</v>
+      </c>
       <c r="E39" s="3">
+        <v>0.15487000000000001</v>
+      </c>
+      <c r="F39" s="3">
         <v>4.2504000000000001E-4</v>
       </c>
-      <c r="F39" s="3">
-        <v>1.1965E-2</v>
-      </c>
       <c r="G39" s="3">
-        <v>0.15487000000000001</v>
+        <v>4.2504000000000001E-4</v>
       </c>
       <c r="H39" s="3">
         <v>4.2504000000000001E-4</v>
@@ -3050,12 +3051,8 @@
       <c r="J39" s="3">
         <v>4.2504000000000001E-4</v>
       </c>
-      <c r="K39" s="3">
-        <v>4.2504000000000001E-4</v>
-      </c>
-      <c r="L39" s="3">
-        <v>4.2504000000000001E-4</v>
-      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3074,22 +3071,26 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-    </row>
-    <row r="40" spans="2:32">
-      <c r="C40" s="2">
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>18</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3">
+        <v>2.5964E-4</v>
+      </c>
+      <c r="D40" s="3">
+        <v>7.6950999999999999E-3</v>
+      </c>
       <c r="E40" s="3">
+        <v>0.15507000000000001</v>
+      </c>
+      <c r="F40" s="3">
         <v>2.5964E-4</v>
       </c>
-      <c r="F40" s="3">
-        <v>7.6950999999999999E-3</v>
-      </c>
       <c r="G40" s="3">
-        <v>0.15507000000000001</v>
+        <v>2.5964E-4</v>
       </c>
       <c r="H40" s="3">
         <v>2.5964E-4</v>
@@ -3100,12 +3101,8 @@
       <c r="J40" s="3">
         <v>2.5964E-4</v>
       </c>
-      <c r="K40" s="3">
-        <v>2.5964E-4</v>
-      </c>
-      <c r="L40" s="3">
-        <v>2.5964E-4</v>
-      </c>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3124,22 +3121,26 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-    </row>
-    <row r="41" spans="2:32">
-      <c r="C41" s="2">
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>20</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3">
+        <v>1.551E-4</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4.9268000000000003E-3</v>
+      </c>
       <c r="E41" s="3">
+        <v>0.15495</v>
+      </c>
+      <c r="F41" s="3">
         <v>1.551E-4</v>
       </c>
-      <c r="F41" s="3">
-        <v>4.9268000000000003E-3</v>
-      </c>
       <c r="G41" s="3">
-        <v>0.15495</v>
+        <v>1.551E-4</v>
       </c>
       <c r="H41" s="3">
         <v>1.551E-4</v>
@@ -3150,16 +3151,12 @@
       <c r="J41" s="3">
         <v>1.551E-4</v>
       </c>
-      <c r="K41" s="3">
-        <v>1.551E-4</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1.551E-4</v>
-      </c>
-      <c r="M41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -3174,151 +3171,152 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
-    </row>
-    <row r="42" spans="2:32">
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="2:32">
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="2:32">
-      <c r="C44" s="2" t="s">
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="9" t="s">
+      <c r="F44" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="K44" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="L44" s="9"/>
-      <c r="M44" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
+      <c r="P44" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="Q44" s="9"/>
-      <c r="R44" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
+      <c r="U44" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="V44" s="9"/>
-      <c r="W44" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="W44" s="9"/>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-    </row>
-    <row r="45" spans="2:32">
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="O45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="Q45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="R45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="S45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="U45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="V45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T45" s="2" t="s">
+      <c r="W45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="X45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V45" s="2" t="s">
+      <c r="Y45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:32">
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="2">
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>-10</v>
       </c>
+      <c r="B46" s="3">
+        <v>0.10808</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.14108000000000001</v>
+      </c>
       <c r="D46" s="3">
-        <v>0.10808</v>
+        <v>0.18623000000000001</v>
       </c>
       <c r="E46" s="3">
+        <v>0.16874</v>
+      </c>
+      <c r="F46" s="3">
         <v>0.14108000000000001</v>
       </c>
-      <c r="F46" s="3">
-        <v>0.18623000000000001</v>
-      </c>
       <c r="G46" s="3">
-        <v>0.16874</v>
+        <v>0.14108000000000001</v>
       </c>
       <c r="H46" s="3">
         <v>0.14108000000000001</v>
@@ -3330,72 +3328,72 @@
         <v>0.14108000000000001</v>
       </c>
       <c r="K46" s="3">
-        <v>0.14108000000000001</v>
+        <v>0.14052000000000001</v>
       </c>
       <c r="L46" s="3">
-        <v>0.14108000000000001</v>
+        <v>0.13996</v>
       </c>
       <c r="M46" s="3">
-        <v>0.14052000000000001</v>
+        <v>0.1401</v>
       </c>
       <c r="N46" s="3">
+        <v>0.1401</v>
+      </c>
+      <c r="O46" s="3">
         <v>0.13996</v>
       </c>
-      <c r="O46" s="3">
-        <v>0.1401</v>
-      </c>
       <c r="P46" s="3">
-        <v>0.1401</v>
+        <v>0.13833999999999999</v>
       </c>
       <c r="Q46" s="3">
-        <v>0.13996</v>
+        <v>0.13644000000000001</v>
       </c>
       <c r="R46" s="3">
-        <v>0.13833999999999999</v>
+        <v>0.13697999999999999</v>
       </c>
       <c r="S46" s="3">
-        <v>0.13644000000000001</v>
+        <v>0.13739000000000001</v>
       </c>
       <c r="T46" s="3">
-        <v>0.13697999999999999</v>
+        <v>0.13766</v>
       </c>
       <c r="U46" s="3">
-        <v>0.13739000000000001</v>
+        <v>0.13861999999999999</v>
       </c>
       <c r="V46" s="3">
-        <v>0.13766</v>
+        <v>0.13821</v>
       </c>
       <c r="W46" s="3">
-        <v>0.13861999999999999</v>
+        <v>0.13657</v>
       </c>
       <c r="X46" s="3">
-        <v>0.13821</v>
+        <v>0.13657</v>
       </c>
       <c r="Y46" s="3">
         <v>0.13657</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0.13657</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>0.13657</v>
-      </c>
-    </row>
-    <row r="47" spans="2:32">
-      <c r="C47" s="2">
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>-8</v>
       </c>
+      <c r="B47" s="3">
+        <v>6.0919000000000001E-2</v>
+      </c>
+      <c r="C47" s="3">
+        <v>9.9363999999999994E-2</v>
+      </c>
       <c r="D47" s="3">
-        <v>6.0919000000000001E-2</v>
+        <v>0.13086</v>
       </c>
       <c r="E47" s="3">
+        <v>0.14427999999999999</v>
+      </c>
+      <c r="F47" s="3">
         <v>9.9363999999999994E-2</v>
       </c>
-      <c r="F47" s="3">
-        <v>0.13086</v>
-      </c>
       <c r="G47" s="3">
-        <v>0.14427999999999999</v>
+        <v>9.9363999999999994E-2</v>
       </c>
       <c r="H47" s="3">
         <v>9.9363999999999994E-2</v>
@@ -3407,72 +3405,72 @@
         <v>9.9363999999999994E-2</v>
       </c>
       <c r="K47" s="3">
-        <v>9.9363999999999994E-2</v>
+        <v>9.6096000000000001E-2</v>
       </c>
       <c r="L47" s="3">
-        <v>9.9363999999999994E-2</v>
+        <v>9.4782000000000005E-2</v>
       </c>
       <c r="M47" s="3">
-        <v>9.6096000000000001E-2</v>
+        <v>9.3843999999999997E-2</v>
       </c>
       <c r="N47" s="3">
-        <v>9.4782000000000005E-2</v>
+        <v>9.3843999999999997E-2</v>
       </c>
       <c r="O47" s="3">
         <v>9.3843999999999997E-2</v>
       </c>
       <c r="P47" s="3">
-        <v>9.3843999999999997E-2</v>
+        <v>9.5480999999999996E-2</v>
       </c>
       <c r="Q47" s="3">
-        <v>9.3843999999999997E-2</v>
+        <v>9.1107999999999995E-2</v>
       </c>
       <c r="R47" s="3">
-        <v>9.5480999999999996E-2</v>
+        <v>9.1107999999999995E-2</v>
       </c>
       <c r="S47" s="3">
         <v>9.1107999999999995E-2</v>
       </c>
       <c r="T47" s="3">
-        <v>9.1107999999999995E-2</v>
+        <v>9.1199000000000002E-2</v>
       </c>
       <c r="U47" s="3">
-        <v>9.1107999999999995E-2</v>
+        <v>9.5893000000000006E-2</v>
       </c>
       <c r="V47" s="3">
-        <v>9.1199000000000002E-2</v>
+        <v>0.09</v>
       </c>
       <c r="W47" s="3">
-        <v>9.5893000000000006E-2</v>
+        <v>8.9464000000000002E-2</v>
       </c>
       <c r="X47" s="3">
-        <v>0.09</v>
+        <v>8.9464000000000002E-2</v>
       </c>
       <c r="Y47" s="3">
-        <v>8.9464000000000002E-2</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>8.9464000000000002E-2</v>
-      </c>
-      <c r="AA47" s="3">
         <v>8.9286000000000004E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:32">
-      <c r="C48" s="2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>-6</v>
       </c>
+      <c r="B48" s="3">
+        <v>2.5772E-2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5.8085999999999999E-2</v>
+      </c>
       <c r="D48" s="3">
-        <v>2.5772E-2</v>
+        <v>7.8066999999999998E-2</v>
       </c>
       <c r="E48" s="3">
+        <v>0.12291000000000001</v>
+      </c>
+      <c r="F48" s="3">
         <v>5.8085999999999999E-2</v>
       </c>
-      <c r="F48" s="3">
-        <v>7.8066999999999998E-2</v>
-      </c>
       <c r="G48" s="3">
-        <v>0.12291000000000001</v>
+        <v>5.8085999999999999E-2</v>
       </c>
       <c r="H48" s="3">
         <v>5.8085999999999999E-2</v>
@@ -3484,72 +3482,72 @@
         <v>5.8085999999999999E-2</v>
       </c>
       <c r="K48" s="3">
-        <v>5.8085999999999999E-2</v>
+        <v>5.2569999999999999E-2</v>
       </c>
       <c r="L48" s="3">
-        <v>5.8085999999999999E-2</v>
+        <v>4.8870999999999998E-2</v>
       </c>
       <c r="M48" s="3">
-        <v>5.2569999999999999E-2</v>
+        <v>4.8675999999999997E-2</v>
       </c>
       <c r="N48" s="3">
-        <v>4.8870999999999998E-2</v>
+        <v>4.8724999999999997E-2</v>
       </c>
       <c r="O48" s="3">
-        <v>4.8675999999999997E-2</v>
+        <v>4.8772999999999997E-2</v>
       </c>
       <c r="P48" s="3">
-        <v>4.8724999999999997E-2</v>
+        <v>4.8530999999999998E-2</v>
       </c>
       <c r="Q48" s="3">
-        <v>4.8772999999999997E-2</v>
+        <v>4.3520999999999997E-2</v>
       </c>
       <c r="R48" s="3">
-        <v>4.8530999999999998E-2</v>
+        <v>4.2883999999999999E-2</v>
       </c>
       <c r="S48" s="3">
-        <v>4.3520999999999997E-2</v>
+        <v>4.2458999999999997E-2</v>
       </c>
       <c r="T48" s="3">
-        <v>4.2883999999999999E-2</v>
+        <v>4.2543999999999998E-2</v>
       </c>
       <c r="U48" s="3">
-        <v>4.2458999999999997E-2</v>
+        <v>4.8343999999999998E-2</v>
       </c>
       <c r="V48" s="3">
-        <v>4.2543999999999998E-2</v>
+        <v>4.1856999999999998E-2</v>
       </c>
       <c r="W48" s="3">
-        <v>4.8343999999999998E-2</v>
+        <v>4.0795999999999999E-2</v>
       </c>
       <c r="X48" s="3">
-        <v>4.1856999999999998E-2</v>
+        <v>4.0795999999999999E-2</v>
       </c>
       <c r="Y48" s="3">
-        <v>4.0795999999999999E-2</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>4.0795999999999999E-2</v>
-      </c>
-      <c r="AA48" s="3">
         <v>4.0918999999999997E-2</v>
       </c>
     </row>
-    <row r="49" spans="3:27">
-      <c r="C49" s="2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>-4</v>
       </c>
+      <c r="B49" s="3">
+        <v>8.3289000000000002E-3</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2.6698E-2</v>
+      </c>
       <c r="D49" s="3">
-        <v>8.3289000000000002E-3</v>
+        <v>3.8124999999999999E-2</v>
       </c>
       <c r="E49" s="3">
+        <v>0.10224999999999999</v>
+      </c>
+      <c r="F49" s="3">
         <v>2.6698E-2</v>
       </c>
-      <c r="F49" s="3">
-        <v>3.8124999999999999E-2</v>
-      </c>
       <c r="G49" s="3">
-        <v>0.10224999999999999</v>
+        <v>2.6698E-2</v>
       </c>
       <c r="H49" s="3">
         <v>2.6698E-2</v>
@@ -3561,72 +3559,72 @@
         <v>2.6698E-2</v>
       </c>
       <c r="K49" s="3">
-        <v>2.6698E-2</v>
+        <v>2.0476000000000001E-2</v>
       </c>
       <c r="L49" s="3">
-        <v>2.6698E-2</v>
+        <v>1.7836999999999999E-2</v>
       </c>
       <c r="M49" s="3">
-        <v>2.0476000000000001E-2</v>
+        <v>1.7714000000000001E-2</v>
       </c>
       <c r="N49" s="3">
-        <v>1.7836999999999999E-2</v>
+        <v>1.7625999999999999E-2</v>
       </c>
       <c r="O49" s="3">
-        <v>1.7714000000000001E-2</v>
+        <v>1.7607999999999999E-2</v>
       </c>
       <c r="P49" s="3">
-        <v>1.7625999999999999E-2</v>
+        <v>1.8107000000000002E-2</v>
       </c>
       <c r="Q49" s="3">
-        <v>1.7607999999999999E-2</v>
+        <v>1.3997000000000001E-2</v>
       </c>
       <c r="R49" s="3">
-        <v>1.8107000000000002E-2</v>
+        <v>1.3644999999999999E-2</v>
       </c>
       <c r="S49" s="3">
-        <v>1.3997000000000001E-2</v>
+        <v>1.3672E-2</v>
       </c>
       <c r="T49" s="3">
-        <v>1.3644999999999999E-2</v>
+        <v>1.3563E-2</v>
       </c>
       <c r="U49" s="3">
-        <v>1.3672E-2</v>
+        <v>1.7228E-2</v>
       </c>
       <c r="V49" s="3">
-        <v>1.3563E-2</v>
+        <v>1.3132E-2</v>
       </c>
       <c r="W49" s="3">
-        <v>1.7228E-2</v>
+        <v>1.2597000000000001E-2</v>
       </c>
       <c r="X49" s="3">
-        <v>1.3132E-2</v>
+        <v>1.2534999999999999E-2</v>
       </c>
       <c r="Y49" s="3">
-        <v>1.2597000000000001E-2</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>1.2534999999999999E-2</v>
-      </c>
-      <c r="AA49" s="3">
         <v>1.2460000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:27">
-      <c r="C50" s="2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>-2</v>
       </c>
+      <c r="B50" s="3">
+        <v>1.573E-3</v>
+      </c>
+      <c r="C50" s="3">
+        <v>9.9681000000000006E-3</v>
+      </c>
       <c r="D50" s="3">
-        <v>1.573E-3</v>
+        <v>1.4284E-2</v>
       </c>
       <c r="E50" s="3">
+        <v>9.1317999999999996E-2</v>
+      </c>
+      <c r="F50" s="3">
         <v>9.9681000000000006E-3</v>
       </c>
-      <c r="F50" s="3">
-        <v>1.4284E-2</v>
-      </c>
       <c r="G50" s="3">
-        <v>9.1317999999999996E-2</v>
+        <v>9.9681000000000006E-3</v>
       </c>
       <c r="H50" s="3">
         <v>9.9681000000000006E-3</v>
@@ -3638,72 +3636,72 @@
         <v>9.9681000000000006E-3</v>
       </c>
       <c r="K50" s="3">
-        <v>9.9681000000000006E-3</v>
+        <v>5.4818999999999996E-3</v>
       </c>
       <c r="L50" s="3">
-        <v>9.9681000000000006E-3</v>
+        <v>4.2483E-3</v>
       </c>
       <c r="M50" s="3">
-        <v>5.4818999999999996E-3</v>
+        <v>4.2023E-3</v>
       </c>
       <c r="N50" s="3">
-        <v>4.2483E-3</v>
+        <v>4.1814E-3</v>
       </c>
       <c r="O50" s="3">
-        <v>4.2023E-3</v>
+        <v>4.1856000000000003E-3</v>
       </c>
       <c r="P50" s="3">
-        <v>4.1814E-3</v>
+        <v>4.2548000000000004E-3</v>
       </c>
       <c r="Q50" s="3">
-        <v>4.1856000000000003E-3</v>
+        <v>2.7818999999999999E-3</v>
       </c>
       <c r="R50" s="3">
-        <v>4.2548000000000004E-3</v>
+        <v>2.7334999999999998E-3</v>
       </c>
       <c r="S50" s="3">
-        <v>2.7818999999999999E-3</v>
+        <v>2.7012999999999998E-3</v>
       </c>
       <c r="T50" s="3">
-        <v>2.7334999999999998E-3</v>
+        <v>2.6932000000000002E-3</v>
       </c>
       <c r="U50" s="3">
-        <v>2.7012999999999998E-3</v>
+        <v>3.6708000000000001E-3</v>
       </c>
       <c r="V50" s="3">
-        <v>2.6932000000000002E-3</v>
+        <v>2.1821000000000002E-3</v>
       </c>
       <c r="W50" s="3">
-        <v>3.6708000000000001E-3</v>
+        <v>2.1332E-3</v>
       </c>
       <c r="X50" s="3">
-        <v>2.1821000000000002E-3</v>
+        <v>2.1396000000000002E-3</v>
       </c>
       <c r="Y50" s="3">
-        <v>2.1332E-3</v>
-      </c>
-      <c r="Z50" s="3">
-        <v>2.1396000000000002E-3</v>
-      </c>
-      <c r="AA50" s="3">
         <v>2.1289E-3</v>
       </c>
     </row>
-    <row r="51" spans="3:27">
-      <c r="C51" s="2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>0</v>
       </c>
+      <c r="B51" s="3">
+        <v>1.7543999999999999E-4</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2.5341999999999999E-3</v>
+      </c>
       <c r="D51" s="3">
-        <v>1.7543999999999999E-4</v>
+        <v>3.7074999999999999E-3</v>
       </c>
       <c r="E51" s="3">
+        <v>8.3123000000000002E-2</v>
+      </c>
+      <c r="F51" s="3">
         <v>2.5341999999999999E-3</v>
       </c>
-      <c r="F51" s="3">
-        <v>3.7074999999999999E-3</v>
-      </c>
       <c r="G51" s="3">
-        <v>8.3123000000000002E-2</v>
+        <v>2.5341999999999999E-3</v>
       </c>
       <c r="H51" s="3">
         <v>2.5341999999999999E-3</v>
@@ -3715,67 +3713,63 @@
         <v>2.5341999999999999E-3</v>
       </c>
       <c r="K51" s="3">
-        <v>2.5341999999999999E-3</v>
+        <v>9.8528999999999999E-4</v>
       </c>
       <c r="L51" s="3">
-        <v>2.5341999999999999E-3</v>
+        <v>7.2320999999999996E-4</v>
       </c>
       <c r="M51" s="3">
-        <v>9.8528999999999999E-4</v>
+        <v>7.2035000000000003E-4</v>
       </c>
       <c r="N51" s="3">
-        <v>7.2320999999999996E-4</v>
+        <v>7.1748999999999999E-4</v>
       </c>
       <c r="O51" s="3">
-        <v>7.2035000000000003E-4</v>
+        <v>7.1604999999999998E-4</v>
       </c>
       <c r="P51" s="3">
-        <v>7.1748999999999999E-4</v>
+        <v>6.1342000000000005E-4</v>
       </c>
       <c r="Q51" s="3">
-        <v>7.1604999999999998E-4</v>
+        <v>3.4539E-4</v>
       </c>
       <c r="R51" s="3">
-        <v>6.1342000000000005E-4</v>
+        <v>3.3630999999999998E-4</v>
       </c>
       <c r="S51" s="3">
-        <v>3.4539E-4</v>
+        <v>3.3698000000000002E-4</v>
       </c>
       <c r="T51" s="3">
-        <v>3.3630999999999998E-4</v>
+        <v>3.3663999999999998E-4</v>
       </c>
       <c r="U51" s="3">
-        <v>3.3698000000000002E-4</v>
+        <v>4.7523999999999998E-4</v>
       </c>
       <c r="V51" s="3">
-        <v>3.3663999999999998E-4</v>
+        <v>2.262E-4</v>
       </c>
       <c r="W51" s="3">
-        <v>4.7523999999999998E-4</v>
+        <v>2.175E-4</v>
       </c>
       <c r="X51" s="3">
-        <v>2.262E-4</v>
+        <v>2.1814999999999999E-4</v>
       </c>
       <c r="Y51" s="3">
-        <v>2.175E-4</v>
-      </c>
-      <c r="Z51" s="3">
-        <v>2.1814999999999999E-4</v>
-      </c>
-      <c r="AA51" s="3">
         <v>2.1859000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="3:27">
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>1</v>
+      </c>
+      <c r="B52" s="3">
         <v>4.3229000000000002E-5</v>
       </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -3789,39 +3783,43 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
+      <c r="U52" s="3">
+        <v>1.1875E-4</v>
+      </c>
+      <c r="V52" s="3">
+        <v>5.3845999999999999E-5</v>
+      </c>
       <c r="W52" s="3">
-        <v>1.1875E-4</v>
+        <v>5.2981E-5</v>
       </c>
       <c r="X52" s="3">
-        <v>5.3845999999999999E-5</v>
+        <v>5.2981E-5</v>
       </c>
       <c r="Y52" s="3">
-        <v>5.2981E-5</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>5.2981E-5</v>
-      </c>
-      <c r="AA52" s="3">
         <v>5.2787999999999997E-5</v>
       </c>
     </row>
-    <row r="53" spans="3:27">
-      <c r="C53" s="2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>2</v>
       </c>
+      <c r="B53" s="3">
+        <v>8.7852000000000002E-6</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4.9196000000000005E-4</v>
+      </c>
       <c r="D53" s="3">
-        <v>8.7852000000000002E-6</v>
+        <v>6.9563000000000003E-4</v>
       </c>
       <c r="E53" s="3">
+        <v>7.8756000000000007E-2</v>
+      </c>
+      <c r="F53" s="3">
         <v>4.9196000000000005E-4</v>
       </c>
-      <c r="F53" s="3">
-        <v>6.9563000000000003E-4</v>
-      </c>
       <c r="G53" s="3">
-        <v>7.8756000000000007E-2</v>
+        <v>4.9196000000000005E-4</v>
       </c>
       <c r="H53" s="3">
         <v>4.9196000000000005E-4</v>
@@ -3833,53 +3831,49 @@
         <v>4.9196000000000005E-4</v>
       </c>
       <c r="K53" s="3">
-        <v>4.9196000000000005E-4</v>
+        <v>9.1831999999999998E-5</v>
       </c>
       <c r="L53" s="3">
-        <v>4.9196000000000005E-4</v>
+        <v>7.1023000000000001E-5</v>
       </c>
       <c r="M53" s="3">
-        <v>9.1831999999999998E-5</v>
+        <v>7.0951999999999994E-5</v>
       </c>
       <c r="N53" s="3">
-        <v>7.1023000000000001E-5</v>
+        <v>7.0809999999999995E-5</v>
       </c>
       <c r="O53" s="3">
-        <v>7.0951999999999994E-5</v>
+        <v>7.0667999999999995E-5</v>
       </c>
       <c r="P53" s="3">
-        <v>7.0809999999999995E-5</v>
+        <v>3.6810999999999997E-5</v>
       </c>
       <c r="Q53" s="3">
-        <v>7.0667999999999995E-5</v>
+        <v>2.0276E-5</v>
       </c>
       <c r="R53" s="3">
-        <v>3.6810999999999997E-5</v>
+        <v>1.9882E-5</v>
       </c>
       <c r="S53" s="3">
-        <v>2.0276E-5</v>
+        <v>1.9734000000000001E-5</v>
       </c>
       <c r="T53" s="3">
-        <v>1.9882E-5</v>
+        <v>1.9734000000000001E-5</v>
       </c>
       <c r="U53" s="3">
-        <v>1.9734000000000001E-5</v>
-      </c>
-      <c r="V53" s="3">
-        <v>1.9734000000000001E-5</v>
-      </c>
-      <c r="W53" s="3">
         <v>2.2650000000000002E-5</v>
       </c>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-    </row>
-    <row r="54" spans="3:27">
-      <c r="C54" s="2">
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>3</v>
       </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3887,23 +3881,23 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="K54" s="3">
+        <v>2.2665000000000001E-5</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1.8400999999999999E-5</v>
+      </c>
       <c r="M54" s="3">
-        <v>2.2665000000000001E-5</v>
+        <v>1.8346E-5</v>
       </c>
       <c r="N54" s="3">
-        <v>1.8400999999999999E-5</v>
+        <v>1.8326999999999999E-5</v>
       </c>
       <c r="O54" s="3">
-        <v>1.8346E-5</v>
-      </c>
-      <c r="P54" s="3">
         <v>1.8326999999999999E-5</v>
       </c>
-      <c r="Q54" s="3">
-        <v>1.8326999999999999E-5</v>
-      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
@@ -3912,22 +3906,26 @@
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-    </row>
-    <row r="55" spans="3:27">
-      <c r="C55" s="2">
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>4</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3">
+        <v>5.2363E-5</v>
+      </c>
+      <c r="D55" s="3">
+        <v>7.8151000000000004E-5</v>
+      </c>
       <c r="E55" s="3">
-        <v>5.2363E-5</v>
+        <v>7.5632000000000005E-2</v>
       </c>
       <c r="F55" s="3">
-        <v>7.8151000000000004E-5</v>
+        <v>5.2290999999999998E-5</v>
       </c>
       <c r="G55" s="3">
-        <v>7.5632000000000005E-2</v>
+        <v>5.2290999999999998E-5</v>
       </c>
       <c r="H55" s="3">
         <v>5.2290999999999998E-5</v>
@@ -3938,12 +3936,8 @@
       <c r="J55" s="3">
         <v>5.2290999999999998E-5</v>
       </c>
-      <c r="K55" s="3">
-        <v>5.2290999999999998E-5</v>
-      </c>
-      <c r="L55" s="3">
-        <v>5.2290999999999998E-5</v>
-      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -3957,29 +3951,27 @@
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-    </row>
-    <row r="63" spans="3:27">
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="AB23:AF23"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="M44:Q44"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="W44:AA44"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="U44:Y44"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:Y23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3990,21 +3982,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186916F-3D6A-44AE-86BD-B8BFD5EA527F}">
   <dimension ref="A2:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
       <c r="M2" s="7"/>
       <c r="R2" s="7"/>
       <c r="W2" s="7"/>
     </row>
-    <row r="3" spans="2:32">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>13</v>
       </c>
@@ -4013,7 +4005,7 @@
       <c r="R3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="2:32">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4057,7 +4049,7 @@
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
     </row>
-    <row r="5" spans="2:32">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
@@ -4149,7 +4141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:32">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -4244,7 +4236,7 @@
         <v>0.24204000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:32">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>-8</v>
       </c>
@@ -4336,7 +4328,7 @@
         <v>0.19794999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:32">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>-6</v>
       </c>
@@ -4428,7 +4420,7 @@
         <v>0.15504000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:32">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>-4</v>
       </c>
@@ -4520,7 +4512,7 @@
         <v>0.1072</v>
       </c>
     </row>
-    <row r="10" spans="2:32">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>-2</v>
       </c>
@@ -4612,7 +4604,7 @@
         <v>5.6054E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:32">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>0</v>
       </c>
@@ -4704,7 +4696,7 @@
         <v>2.2596000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:32">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>2</v>
       </c>
@@ -4796,7 +4788,7 @@
         <v>6.5430999999999996E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:32">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>4</v>
       </c>
@@ -4888,7 +4880,7 @@
         <v>1.469E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:32">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <v>6</v>
       </c>
@@ -4980,7 +4972,7 @@
         <v>3.0095000000000002E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:32">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <v>8</v>
       </c>
@@ -5070,7 +5062,7 @@
         <v>5.5043999999999997E-5</v>
       </c>
     </row>
-    <row r="16" spans="2:32">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
         <v>10</v>
       </c>
@@ -5122,7 +5114,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C17" s="2">
         <v>12</v>
       </c>
@@ -5162,7 +5154,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C18" s="2">
         <v>14</v>
       </c>
@@ -5202,7 +5194,7 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C19" s="2">
         <v>16</v>
       </c>
@@ -5242,7 +5234,7 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C20" s="2">
         <v>18</v>
       </c>
@@ -5282,7 +5274,7 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <v>20</v>
       </c>
@@ -5322,7 +5314,7 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="H23" s="10" t="s">
         <v>25</v>
       </c>
@@ -5359,7 +5351,7 @@
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
@@ -5442,7 +5434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>33</v>
       </c>
@@ -5525,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -5608,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C27" s="2">
         <v>-6</v>
       </c>
@@ -5688,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
@@ -5771,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
@@ -5854,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>35</v>
       </c>
@@ -5937,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
@@ -6020,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C32" s="2">
         <v>4</v>
       </c>
@@ -6100,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
@@ -6183,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>39</v>
       </c>
@@ -6266,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>40</v>
       </c>
@@ -6284,7 +6276,7 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
@@ -6302,7 +6294,7 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C37" s="2">
         <v>14</v>
       </c>
@@ -6317,7 +6309,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C38" s="2">
         <v>16</v>
       </c>
@@ -6335,7 +6327,7 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C39" s="2">
         <v>18</v>
       </c>
@@ -6353,7 +6345,7 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C40" s="2">
         <v>20</v>
       </c>
@@ -6371,7 +6363,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -6386,7 +6378,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -6402,7 +6394,7 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -6418,7 +6410,7 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -6434,7 +6426,7 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -6450,7 +6442,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -6466,7 +6458,7 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -6482,7 +6474,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -6494,7 +6486,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
-    <row r="49" spans="10:24">
+    <row r="49" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6506,14 +6498,14 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
     </row>
-    <row r="50" spans="10:24">
+    <row r="50" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="10:24">
+    <row r="51" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -6522,16 +6514,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="AB23:AF23"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="M4:Q4"/>
     <mergeCell ref="R4:V4"/>
     <mergeCell ref="AB4:AF4"/>
     <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="AB23:AF23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
